--- a/target/classes/testdata/aspireportal.xlsx
+++ b/target/classes/testdata/aspireportal.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Employee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:C2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Employee Name</t>
   </si>
@@ -36,13 +36,49 @@
     <t>atmecs@123</t>
   </si>
   <si>
+    <t>Validation Data</t>
+  </si>
+  <si>
     <t>Validation Text</t>
   </si>
   <si>
-    <t>Validation Value</t>
-  </si>
-  <si>
-    <t>Logo</t>
+    <t>Breadcrum</t>
+  </si>
+  <si>
+    <t>Timesheet Create or Update Timings</t>
+  </si>
+  <si>
+    <t>Monday value</t>
+  </si>
+  <si>
+    <t>Tuesday value</t>
+  </si>
+  <si>
+    <t>Wednesday value</t>
+  </si>
+  <si>
+    <t>Thursday value</t>
+  </si>
+  <si>
+    <t>Friday value</t>
+  </si>
+  <si>
+    <t>Notes value</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Add activity value</t>
+  </si>
+  <si>
+    <t>Delete activity value</t>
+  </si>
+  <si>
+    <t>Notes text</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -51,11 +87,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,9 +100,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -79,21 +129,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,7 +150,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,7 +198,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,29 +225,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,32 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +267,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,157 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,8 +464,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,8 +488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,16 +505,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -471,30 +536,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -508,157 +549,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,9 +1038,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="27.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="35.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="35.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="27.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.7142857142857" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1006,10 +1058,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1026,29 +1078,104 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="32.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="33.8095238095238" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/aspireportal.xlsx
+++ b/target/classes/testdata/aspireportal.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
     <sheet name="Employee" sheetId="2" r:id="rId2"/>
+    <sheet name="Manager" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:C2"/>
@@ -16,15 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Employee Username</t>
-  </si>
-  <si>
-    <t>Employee Password</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>Employee</t>
@@ -36,6 +37,12 @@
     <t>atmecs@123</t>
   </si>
   <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>reportmanager@atmecs.com</t>
+  </si>
+  <si>
     <t>Validation Data</t>
   </si>
   <si>
@@ -45,40 +52,97 @@
     <t>Breadcrum</t>
   </si>
   <si>
+    <t>Timesheet Approve Timings</t>
+  </si>
+  <si>
+    <t>Monday value</t>
+  </si>
+  <si>
+    <t>Tuesday value</t>
+  </si>
+  <si>
+    <t>Wednesday value</t>
+  </si>
+  <si>
+    <t>Thursday value</t>
+  </si>
+  <si>
+    <t>Friday value</t>
+  </si>
+  <si>
+    <t>Notes value</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Add activity value</t>
+  </si>
+  <si>
+    <t>Add Activity</t>
+  </si>
+  <si>
+    <t>Delete activity value</t>
+  </si>
+  <si>
+    <t>Delete Activity</t>
+  </si>
+  <si>
+    <t>Notes text</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Activity 1</t>
+  </si>
+  <si>
+    <t>Activity 2</t>
+  </si>
+  <si>
+    <t>Internal Meeting</t>
+  </si>
+  <si>
+    <t>Submit message</t>
+  </si>
+  <si>
+    <t>Timesheet submitted successfully</t>
+  </si>
+  <si>
+    <t>Breadcrun</t>
+  </si>
+  <si>
+    <t>Timesheet Approve Timings</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Hyper Loop</t>
+  </si>
+  <si>
+    <t>Approve message</t>
+  </si>
+  <si>
+    <t>Approved successfully</t>
+  </si>
+  <si>
+    <t>Reject popup</t>
+  </si>
+  <si>
+    <t>Reason for rejection</t>
+  </si>
+  <si>
+    <t>Reject message</t>
+  </si>
+  <si>
+    <t>Rejected message</t>
+  </si>
+  <si>
+    <t>Timesheet rejected successfully</t>
+  </si>
+  <si>
     <t>Timesheet Create or Update Timings</t>
-  </si>
-  <si>
-    <t>Monday value</t>
-  </si>
-  <si>
-    <t>Tuesday value</t>
-  </si>
-  <si>
-    <t>Wednesday value</t>
-  </si>
-  <si>
-    <t>Thursday value</t>
-  </si>
-  <si>
-    <t>Friday value</t>
-  </si>
-  <si>
-    <t>Notes value</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Add activity value</t>
-  </si>
-  <si>
-    <t>Delete activity value</t>
-  </si>
-  <si>
-    <t>Notes text</t>
-  </si>
-  <si>
-    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -91,7 +155,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +170,24 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -122,23 +204,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +225,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -166,23 +295,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,63 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +553,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,41 +592,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -535,33 +612,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,138 +667,146 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,17 +1126,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="27.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.1428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1058,10 +1154,21 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1069,6 +1176,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="employee@atmecs.com"/>
     <hyperlink ref="C2" r:id="rId2" display="atmecs@123"/>
+    <hyperlink ref="B3" r:id="rId3" display="reportmanager@atmecs.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="atmecs@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1078,104 +1187,205 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="33.8095238095238" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.5714285714286" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/testdata/aspireportal.xlsx
+++ b/target/classes/testdata/aspireportal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830" activeTab="2"/>
+    <workbookView windowWidth="14850" windowHeight="5955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Employee Name</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Timesheet rejected successfully</t>
+  </si>
+  <si>
+    <t>Shifts</t>
+  </si>
+  <si>
+    <t>Shift(s) updated successfully</t>
   </si>
   <si>
     <t>Timesheet Create or Update Timings</t>
@@ -150,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -209,6 +215,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -225,6 +246,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -234,12 +278,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -248,40 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,57 +351,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,49 +361,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,133 +523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +552,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +609,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -612,185 +638,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,7 +1202,7 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.0859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.80859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1212,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1320,13 +1326,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="27.2857142857143" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="30.5714285714286" collapsed="true"/>
@@ -1388,6 +1394,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/target/classes/testdata/aspireportal.xlsx
+++ b/target/classes/testdata/aspireportal.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Employee Name</t>
   </si>
